--- a/VtigerFramework/testscriptdata/Testdata.xlsx
+++ b/VtigerFramework/testscriptdata/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devis\eclipse-workspace\VtigerFramework\testscriptdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devis\git\Automation_TL\VtigerFramework\testscriptdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2745FB3-46AD-4988-81EE-D34E3BD1452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F438D3-A01E-4A82-87E3-CCDC95DF9B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FAC0401-5649-41FE-9585-27B5367C8CFB}"/>
+    <workbookView xWindow="3864" yWindow="2316" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{5FAC0401-5649-41FE-9585-27B5367C8CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="organization" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>TC_ID</t>
   </si>
@@ -159,9 +159,6 @@
     <t>RelatedTo</t>
   </si>
   <si>
-    <t>Contacts</t>
-  </si>
-  <si>
     <t>CreateVendor</t>
   </si>
   <si>
@@ -262,6 +259,13 @@
   </si>
   <si>
     <t>Qsp</t>
+  </si>
+  <si>
+    <t>Potentials&amp;action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+				</t>
   </si>
 </sst>
 </file>
@@ -297,9 +301,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FFFC10-FA0B-4817-BCB5-13BE32179A6B}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -668,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -686,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -708,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -738,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -814,7 +821,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -841,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48A3874-3778-462B-9A88-83D6DAF356D6}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +859,7 @@
     <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.77734375" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -879,15 +886,15 @@
         <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -901,11 +908,11 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
+      <c r="G2" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -913,7 +920,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -950,10 +963,10 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -961,13 +974,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -978,22 +991,22 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
         <v>55</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1001,28 +1014,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1057,16 +1070,16 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
       <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1074,19 +1087,19 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
